--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value899.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value899.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.017406138370017</v>
+        <v>1.991708755493164</v>
       </c>
       <c r="B1">
-        <v>2.424730809410178</v>
+        <v>2.785296678543091</v>
       </c>
       <c r="C1">
-        <v>2.526388053784987</v>
+        <v>1.600721120834351</v>
       </c>
       <c r="D1">
-        <v>3.2504109207602</v>
+        <v>1.250567197799683</v>
       </c>
       <c r="E1">
-        <v>1.277279647649626</v>
+        <v>1.135878324508667</v>
       </c>
     </row>
   </sheetData>
